--- a/source/PART 01/CHAPTER 01/테이블.xlsx
+++ b/source/PART 01/CHAPTER 01/테이블.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF77812-D079-4478-A5A8-9C0E7284B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="58">
   <si>
     <t>고객</t>
   </si>
@@ -222,6 +223,9 @@
   <si>
     <t>N-0709</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-0710</t>
   </si>
 </sst>
 </file>
@@ -229,8 +233,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -518,21 +522,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,19 +545,16 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,10 +563,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -574,13 +575,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,7 +590,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
@@ -950,21 +948,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
@@ -994,368 +992,380 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>1176000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>3</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>0.15</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>2998800</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>48300</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
         <v>144900</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>47400</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <v>142200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>17800</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>9</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <v>160200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>86500</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>7</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>605500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>3500</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>46300</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>7</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <v>324100</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>104500</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>8</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
         <v>836000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>79800</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>1</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>79800</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>89300</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>8</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <v>714400</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>4100</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>7</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>79500</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>2</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <v>159000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>165300</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>3</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <v>495900</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>3600</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>8</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <v>28800</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1375,415 +1385,415 @@
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>1176000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>0.15</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>2998800</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>48300</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <v>144900</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>47400</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>3</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <v>142200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>17800</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>9</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>160200</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>86500</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>7</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <v>605500</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>3500</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <v>7000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>46300</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>7</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
         <v>324100</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>104500</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>8</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>836000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>79800</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>1</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <v>79800</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>89300</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>8</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>714400</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>4100</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>7</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <v>28700</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>79500</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <v>159000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>165300</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>3</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <v>495900</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="20">
         <v>3600</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <v>8</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
         <v>28800</v>
       </c>
     </row>
@@ -1808,39 +1818,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="20.58203125" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1861,116 +1871,116 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>12</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>10</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>5</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="26" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>8</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>15</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>10</v>
       </c>
     </row>
@@ -1993,18 +2003,18 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
@@ -2034,317 +2044,322 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>1176000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>3</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>0.15</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>2998800</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>48300</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
         <v>144900</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>47400</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <v>142200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>17800</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>9</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <v>160200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>86500</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>7</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>605500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>3500</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>46300</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>7</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <v>324100</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>104500</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>8</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
         <v>836000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>79800</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>1</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>79800</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>89300</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>8</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <v>714400</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>4100</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>7</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>79500</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>2</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <v>159000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>165300</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>3</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <v>495900</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>3600</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>8</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <v>28800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -2355,11 +2370,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2371,354 +2381,354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>1176000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>3</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>0.15</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>2998800</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>48300</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
         <v>144900</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>47400</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <v>142200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>17800</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>9</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <v>160200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>86500</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>7</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>605500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>3500</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>46300</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>7</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <v>324100</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>104500</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>8</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
         <v>836000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>79800</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>1</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>79800</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>89300</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>8</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <v>714400</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>4100</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>7</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>79500</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>2</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <v>159000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>165300</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>3</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <v>495900</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>3600</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>8</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <v>28800</v>
       </c>
     </row>
